--- a/all_annotated/ANET_Q1_2020_2.xlsx
+++ b/all_annotated/ANET_Q1_2020_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/earnings_call_transcripts_rated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED954A3-FBBC-964E-A0CC-0966A7520E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB54FAFB-D217-2145-9B78-4D8A8F27C76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1960" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>asker</t>
   </si>
@@ -199,18 +199,12 @@
     <t>So as much as I’d like to ask here again, for how much of the weakness is supply chain versus the demand. I want to say, it’s a different question which is interestingly you have come up with – may be not try only this quarter, but I’ve got sort of in terms of the classic question risk displacement for the cloud titans that investment community worried for quite some time.And going to recognize its not currently just for day given the background in the current macroeconomic environment. But any change your – about to lay your position with the Microsoft in particular in [indiscernible] in general relative to that order concern.</t>
   </si>
   <si>
-    <t>No, Jayshree, and as we've said before, Paul, the level of sort of joint development, we continue to do with these customers including Microsoft, is still pretty intense. So, we're not overly worried. Yes, these are competitive environments that will continue to be so. But there's no major shift.</t>
-  </si>
-  <si>
     <t>And Jayshree, if I could just follow-up, I appreciate the market share comments. But obviously, mortgage share is the exactly booking phenomenon and so with respect to forward-looking and the risk of displacement, you all haven't seen or heard anything from those cloud sittings [ph] that would cause you incremental concern relative to where you've been historically?</t>
   </si>
   <si>
     <t>Good evening. Thank you for taking the question. I was hoping you could step back a little bit and tell us your thoughts, bigger picture about broader hyperscale investment. I'm not looking for guidance. I'm just I'm just interested how you think about these customers longer term.The framing for that near term, we're seeing these kind of material demand drivers, migration to Saas, adoption of cloud need for Elastic capacity addition and in the interim, not seeing a big change in those growth rates, the demand drivers themselves.So I'm seeing a big change in those growth rates, the demand drivers themselves. So I'm interested how you think about it longer term, what are the material drivers that kind of accelerate growth rates? Any specific factors that you think could be meaningful for an acceleration in the broader investment? Thank you.</t>
   </si>
   <si>
-    <t>Yes. Then the way to look at the cloud and I know the cloud titans they started with data centers with compute and storage. And then moved down to different types of apps and are continuing that journey.And the next phase of investment in this pace now view there will be more at the edge by edge I don't mean directly just edge computing, but think of thousands type of make me please so the telecompany I think continue to invest in that area. And then connect that back into the tenant space in their large data centers.And these networks of different kinds being built or will continue be built in the next few years. With different types of overlays and encryption and mapping from one tenant space to the other and so on.I think that's very significant, because in the longer picture, if you look at it five, 10 years from now, we will look back and say, wow, this is how the cloud companies re-stitched the Internet. And I think those are some of the most strategic projects in the next few years.</t>
-  </si>
-  <si>
     <t>Great thanks for squeezing me in. A longer-term question as it relates to the enterprise. Has the nature of your conversations with your close enterprise customers changed at all? This may be a little bit premature.And the reason why I ask is, given that we're at a stay home, zero touch environment, one would have to think that the network automation, thesis should start playing out a little bit faster given that no can get to their networks anymore. How does that fit into customer conversations today?Do you think that will evolve? And especially given that you do have big switch that provides that enterprise -- hyperscale cloud-like environment to the enterprise that might be a positive to you guys in the long-term.</t>
   </si>
   <si>
@@ -316,16 +310,10 @@
     <t>Okay, I will try and answer the question you are sounding very muffled, Paul. Maybe you're wearing a mask. But if I understood the question, what does the competitive landscape look like with cloud titans and I would just sort of generically say that our fundamental thesis is unchanged. We're not seeing major competitive issues or architectural shifts.In fact, if you look at the recently released market data from both Deloro and Creehan, it validates our number one spot in 100 gig. And for the third consecutive year, we are doing that, where we are the number one market share in 100 gig.And we continue to increase market share into the high teens for high-performance data center switching. So, we are pleased with our progress year after year, including 2019. Anshul, I'd like to call you to see if there's any specific titan issues you want to highlight.</t>
   </si>
   <si>
-    <t>Paul, this is a good time for me to highlight -- the work Anshul has been doing. As you know, we have a rich long history in open networking. And today, Arista just introduced a switch abstraction interface, working so that we can work with our best-of-breed platforms and an abstraction layer for cloud titans and who can now use Sonic on top of our Arista SAI. And this is another example of the close collaboration Anshul is mentioning.</t>
-  </si>
-  <si>
     <t>Yes. On 1 hand, we are always paranoid and concerns. That's our nature, and we should be that way, and we want to continue to deliver the best of the best. On the other hand, we have no particular concern or no change in concern or no radical shift in the competitive landscape.</t>
   </si>
   <si>
     <t>Thank you, Ben. Well, look, I think the greatest acceleration for Arista came when the cloud titans made a huge migration to a lease fine architecture and especially standardized on Arista's EOS for 100 gigabit universal spine.So - and then on top of that acceleration, a number of titans co-developed with us, our join development focus that allow them to scale those through distributed datacenters all over the region and all over the cloud.So I think the next acceleration comes from more used cases, with 400-gig and 100-gig with the possibility of extending the data centers and their server density and their storage capabilities.And I don't think that’s necessarily this year but it could be in the next three years. So we will have to be a repeat or how we succeeded in 100-gig and 400-gig levels. Anshul, do you want to add something more to that?</t>
-  </si>
-  <si>
-    <t>Thanks, Ashu. That's great. The DCI and routing use cases cannot be underestimated. And they truly redefine the Internet.</t>
   </si>
   <si>
     <t>Yeah. No, Woo Jin, you really bring up a good point here. We tend to talk about data center and campus and all of these different use cases. But our customers are thinking more and more operationally. It's great to have a box. But how to ignite that box with the right operational capabilities is very, very important.And so when you look at it, you're absolutely right, day zero, day one, day two, zero touch automation, one click for the campus, data center, huge topic. The other one and this is why we bought Big Switch is not only are we igniting real-time streaming telemetry and cloud vision.But we're really extending that into the observability and network package relative space and we're very pleased with the sort of sum of data analyzer, cloud vision and now fix iCH to extend our dance monitoring fabric.So that trial or combination is going to be very important 50% energy so our enterprise conversations are going beyond that’s complete platform to much more operational automation analytics, availability and in the future security and segmentation as well.
@@ -397,12 +385,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,16 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="A15" sqref="A15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="8.83203125" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -794,8 +778,8 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
+      <c r="D2" t="s">
+        <v>64</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -826,8 +810,8 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
+      <c r="D3" t="s">
+        <v>65</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -858,8 +842,8 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
+      <c r="D4" t="s">
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -890,8 +874,8 @@
       <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>69</v>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -922,8 +906,8 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>70</v>
+      <c r="D6" t="s">
+        <v>68</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -954,8 +938,8 @@
       <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>71</v>
+      <c r="D7" t="s">
+        <v>69</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -986,8 +970,8 @@
       <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
+      <c r="D8" t="s">
+        <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1018,8 +1002,8 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>73</v>
+      <c r="D9" t="s">
+        <v>71</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1050,8 +1034,8 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>74</v>
+      <c r="D10" t="s">
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1082,8 +1066,8 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>75</v>
+      <c r="D11" t="s">
+        <v>73</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1114,8 +1098,8 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>76</v>
+      <c r="D12" t="s">
+        <v>74</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1146,8 +1130,8 @@
       <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
+      <c r="D13" t="s">
+        <v>75</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1178,8 +1162,8 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
+      <c r="D14" t="s">
+        <v>76</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1197,6 +1181,38 @@
         <v>2</v>
       </c>
       <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
     </row>
@@ -1208,25 +1224,25 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1240,16 +1256,16 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1261,39 +1277,39 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1301,25 +1317,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
+      <c r="D19" t="s">
+        <v>81</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1333,13 +1349,13 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1348,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1362,16 +1378,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1380,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1394,25 +1410,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1426,16 +1442,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1444,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1458,22 +1474,22 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1490,22 +1506,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1525,13 +1541,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
+      <c r="D26" t="s">
+        <v>88</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1540,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1554,28 +1570,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -1592,25 +1608,25 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1618,22 +1634,22 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>92</v>
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1642,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1650,28 +1666,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1682,31 +1698,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1714,16 +1730,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>95</v>
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1746,22 +1762,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1784,10 +1800,10 @@
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1796,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -1810,16 +1826,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1828,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1842,16 +1858,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1860,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1874,31 +1890,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -1906,28 +1922,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1938,16 +1954,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>102</v>
+      <c r="D39" t="s">
+        <v>101</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1959,108 +1975,12 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
         <v>2</v>
       </c>
     </row>
